--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -448,11 +448,11 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -469,13 +469,13 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41552.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>163.16</v>
+        <v>16.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41552.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>44.73</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>60.22</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>18.96</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>1.49</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>237.61</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>44.98</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>14.85</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.91</v>
+        <v>2.99</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.13</v>
+        <v>5.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41552.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.59</v>
+        <v>2.46</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.92</v>
+        <v>4.49</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>160.93</v>
+        <v>16.09</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.98</v>
+        <v>3.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.1</v>
+        <v>4.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41552.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.56</v>
+        <v>4.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.19</v>
+        <v>3.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.6</v>
+        <v>6.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.76</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>236.46</v>
+        <v>23.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.77</v>
+        <v>4.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.65</v>
+        <v>1.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.02</v>
+        <v>5.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41552.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.25</v>
-      </c>
       <c r="AG6" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41552.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41552.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30.75</v>
+        <v>3.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25.04</v>
+        <v>2.5</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>37.47</v>
+        <v>3.75</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>160.88</v>
+        <v>16.09</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.69</v>
+        <v>3.07</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>33.6</v>
+        <v>3.36</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41552.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>117.43</v>
+        <v>11.74</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41552.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>108.27</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>27.62</v>
+        <v>2.76</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41552.34027777778</v>
+        <v>44801.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.32</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.53</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.73</v>
+        <v>0.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.32</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.99</v>
+        <v>0.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41552.34722222222</v>
+        <v>44801.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.05</v>
+        <v>0.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.47</v>
+        <v>0.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.58</v>
+        <v>0.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.22</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.02</v>
+        <v>0.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.49</v>
+        <v>0.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.25</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.9</v>
+        <v>0.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.27</v>
+        <v>0.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.76</v>
+        <v>2.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.5</v>
+        <v>0.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.99</v>
+        <v>0.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.99</v>
+        <v>0.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.17</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.18</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.39</v>
+        <v>0.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.51</v>
+        <v>0.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.86</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41552.35416666666</v>
+        <v>44801.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.4</v>
+        <v>2.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.08</v>
+        <v>5.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.46</v>
+        <v>4.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.49</v>
+        <v>6.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.71</v>
+        <v>2.93</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.23</v>
+        <v>2.14</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.31</v>
+        <v>2.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.56</v>
+        <v>2.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.95</v>
+        <v>1.54</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.09</v>
+        <v>28.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.1</v>
+        <v>5.34</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.79</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.94</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.16</v>
+        <v>3.41</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.9</v>
+        <v>1.56</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.95</v>
+        <v>1.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.28</v>
+        <v>2.25</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.11</v>
+        <v>6.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.28</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41552.36111111111</v>
+        <v>44801.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.04</v>
+        <v>0.35</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.24</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.83</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41552.36805555555</v>
+        <v>44801.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.14</v>
+        <v>18.88</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.09</v>
+        <v>13.95</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.78</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.32</v>
+        <v>40.47</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.21</v>
+        <v>33.83</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.1</v>
+        <v>14.74</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.26</v>
+        <v>53.58</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.17</v>
+        <v>22.52</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.08</v>
+        <v>10.12</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.08</v>
+        <v>15.01</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.12</v>
+        <v>16.35</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.14</v>
+        <v>17.45</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>4.69</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.11</v>
+        <v>14.33</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.17</v>
+        <v>21.23</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.12</v>
+        <v>11.88</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.55</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1</v>
+        <v>215.7</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.38</v>
+        <v>40.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.1</v>
+        <v>13.64</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.25</v>
+        <v>27.57</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.11</v>
+        <v>14.77</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.04</v>
+        <v>1.9</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.55</v>
+        <v>26.31</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.09</v>
+        <v>11.93</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.09</v>
+        <v>10.6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.11</v>
+        <v>12.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.12</v>
+        <v>17.2</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.23</v>
+        <v>48.35</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.05</v>
+        <v>7.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41552.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41552.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41552.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41552.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41552.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>191.82</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>36.54</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>44.81</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.1</v>
+        <v>16.78</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -469,9 +469,9 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44801.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44801.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44801.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.21</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.28</v>
+        <v>52.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.43</v>
+        <v>44.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.26</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.81</v>
+        <v>68.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.29</v>
+        <v>22.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.79</v>
+        <v>27.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>28.43</v>
+        <v>284.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.34</v>
+        <v>53.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.6</v>
+        <v>36.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.41</v>
+        <v>34.13</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.56</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.18</v>
+        <v>61.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44801.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,13 +655,13 @@
         <v>44801.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>4.96</v>
@@ -670,88 +670,88 @@
         <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
@@ -762,97 +762,97 @@
         <v>3.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.583</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.411</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>5.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.22</v>
+        <v>2.216</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.49</v>
+        <v>7.493</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.948</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.323</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.51</v>
+        <v>2.505</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.11</v>
+        <v>3.109</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.214</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.58</v>
+        <v>26.583</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.22</v>
+        <v>6.219</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.295</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.845</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.689</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>3.07</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.63</v>
+        <v>2.628</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>6.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>2.21</v>
@@ -863,55 +863,55 @@
         <v>44801.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.75</v>
+        <v>24.754</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.21</v>
+        <v>18.206</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.104</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.78</v>
+        <v>52.777</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>44.29</v>
+        <v>44.287</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.26</v>
+        <v>19.259</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.06</v>
+        <v>68.05500000000001</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>29.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.18</v>
+        <v>13.184</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.57</v>
+        <v>19.572</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.38</v>
+        <v>21.384</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.9</v>
+        <v>22.897</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.116</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.66</v>
+        <v>18.662</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.88</v>
+        <v>27.875</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.44</v>
+        <v>15.443</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.72</v>
@@ -920,43 +920,43 @@
         <v>284.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.44</v>
+        <v>53.441</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.86</v>
+        <v>17.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>36.02</v>
+        <v>36.019</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>19.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.46</v>
+        <v>2.464</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.13</v>
+        <v>34.131</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.56</v>
+        <v>15.564</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.88</v>
+        <v>16.877</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.48</v>
+        <v>22.482</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>61.8</v>
+        <v>61.797</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.91</v>
+        <v>9.907</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>21.88</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>2.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44801.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.78</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,46 +967,46 @@
         <v>44801.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.55</v>
+        <v>3.546</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.37</v>
+        <v>2.373</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.312</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>6.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.21</v>
+        <v>6.213</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.64</v>
+        <v>2.636</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.64</v>
+        <v>17.642</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.85</v>
+        <v>3.851</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.47</v>
+        <v>2.475</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.93</v>
+        <v>2.933</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.3</v>
+        <v>3.297</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>4.26</v>
@@ -1015,55 +1015,159 @@
         <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.65</v>
+        <v>32.649</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.78</v>
+        <v>7.779</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.56</v>
+        <v>2.557</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.96</v>
+        <v>2.962</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.312</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.81</v>
+        <v>7.811</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.11</v>
+        <v>2.107</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.02</v>
+        <v>2.019</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.75</v>
+        <v>2.753</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.08</v>
+        <v>3.084</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.71</v>
+        <v>16.715</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.86</v>
+        <v>2.862</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44801.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.78</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_120.xlsx
+++ b/DATA_goal/Junction_Flooding_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,46 +967,46 @@
         <v>44801.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.546</v>
+        <v>3.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.373</v>
+        <v>2.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>6.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.213</v>
+        <v>6.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.636</v>
+        <v>2.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.642</v>
+        <v>17.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.851</v>
+        <v>3.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.842</v>
+        <v>1.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.475</v>
+        <v>2.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.933</v>
+        <v>2.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.297</v>
+        <v>3.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.232</v>
+        <v>2.23</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>4.26</v>
@@ -1015,159 +1015,55 @@
         <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.649</v>
+        <v>32.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.779</v>
+        <v>7.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.557</v>
+        <v>2.56</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.237</v>
+        <v>5.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.962</v>
+        <v>2.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.811</v>
+        <v>7.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.107</v>
+        <v>2.11</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.019</v>
+        <v>2.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.753</v>
+        <v>2.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.084</v>
+        <v>3.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.715</v>
+        <v>16.71</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.862</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44801.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.78</v>
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>
